--- a/Test/CanToolAPPTestCase11组测试结果.xlsx
+++ b/Test/CanToolAPPTestCase11组测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="CanToolApp测试用例" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="166">
   <si>
     <t>预期结果</t>
   </si>
@@ -747,14 +747,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无法测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -890,10 +882,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无返回,没有此功能返回\r for Open OK或者\BEL for Failure.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>成功，数据也会分开显示，但是如果是同一端口的数据，会覆盖上一个数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -915,6 +903,10 @@
   </si>
   <si>
     <t>cantool装置没有此功能，会对传过来的命令返回\r或者\BEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1392,6 +1384,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1438,60 +1484,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1802,7 +1794,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1823,30 +1815,30 @@
   <sheetData>
     <row r="1" spans="2:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="46"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="25"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="43"/>
     </row>
     <row r="4" spans="2:12" ht="27" x14ac:dyDescent="0.15">
       <c r="B4" s="10" t="s">
@@ -1878,10 +1870,10 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="51" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -1905,8 +1897,8 @@
       <c r="J5" s="15"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B6" s="35"/>
-      <c r="C6" s="32"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1928,8 +1920,8 @@
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B7" s="35"/>
-      <c r="C7" s="32"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
@@ -1951,8 +1943,8 @@
       <c r="J7" s="12"/>
     </row>
     <row r="8" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B8" s="35"/>
-      <c r="C8" s="32"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="50"/>
       <c r="D8" s="19" t="s">
         <v>24</v>
       </c>
@@ -1972,12 +1964,12 @@
         <v>119</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B9" s="35"/>
-      <c r="C9" s="32"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="19" t="s">
         <v>27</v>
       </c>
@@ -1999,8 +1991,8 @@
       <c r="J9" s="12"/>
     </row>
     <row r="10" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B10" s="35"/>
-      <c r="C10" s="29" t="s">
+      <c r="B10" s="53"/>
+      <c r="C10" s="47" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="19" t="s">
@@ -2024,8 +2016,8 @@
       <c r="J10" s="12"/>
     </row>
     <row r="11" spans="2:12" ht="162" x14ac:dyDescent="0.15">
-      <c r="B11" s="35"/>
-      <c r="C11" s="30"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="48"/>
       <c r="D11" s="19" t="s">
         <v>35</v>
       </c>
@@ -2047,8 +2039,8 @@
       <c r="J11" s="12"/>
     </row>
     <row r="12" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B12" s="35"/>
-      <c r="C12" s="30"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="19" t="s">
         <v>44</v>
       </c>
@@ -2062,18 +2054,16 @@
         <v>49</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>160</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="J12" s="12"/>
     </row>
     <row r="13" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="35"/>
-      <c r="C13" s="30"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="48"/>
       <c r="D13" s="19" t="s">
         <v>45</v>
       </c>
@@ -2090,15 +2080,13 @@
         <v>51</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>160</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="J13" s="12"/>
     </row>
     <row r="14" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B14" s="35"/>
-      <c r="C14" s="31" t="s">
+      <c r="B14" s="53"/>
+      <c r="C14" s="49" t="s">
         <v>54</v>
       </c>
       <c r="D14" s="19" t="s">
@@ -2122,8 +2110,8 @@
       <c r="J14" s="12"/>
     </row>
     <row r="15" spans="2:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="B15" s="35"/>
-      <c r="C15" s="32"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="50"/>
       <c r="D15" s="19" t="s">
         <v>56</v>
       </c>
@@ -2140,13 +2128,13 @@
         <v>65</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="2:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="B16" s="35"/>
-      <c r="C16" s="32"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="50"/>
       <c r="D16" s="19" t="s">
         <v>57</v>
       </c>
@@ -2163,14 +2151,14 @@
         <v>69</v>
       </c>
       <c r="I16" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="J16" s="12" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="17" spans="2:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="B17" s="36"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="17"/>
       <c r="D17" s="21" t="s">
         <v>82</v>
@@ -2188,15 +2176,15 @@
         <v>86</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="B18" s="35"/>
-      <c r="C18" s="31" t="s">
+      <c r="B18" s="53"/>
+      <c r="C18" s="49" t="s">
         <v>70</v>
       </c>
       <c r="D18" s="19" t="s">
@@ -2215,15 +2203,15 @@
         <v>79</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="B19" s="35"/>
-      <c r="C19" s="32"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="19" t="s">
         <v>72</v>
       </c>
@@ -2240,15 +2228,15 @@
         <v>81</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B20" s="35"/>
-      <c r="C20" s="37"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="19" t="s">
         <v>73</v>
       </c>
@@ -2265,13 +2253,13 @@
         <v>89</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J20" s="12"/>
     </row>
     <row r="21" spans="2:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="B21" s="35"/>
-      <c r="C21" s="29" t="s">
+      <c r="B21" s="53"/>
+      <c r="C21" s="47" t="s">
         <v>90</v>
       </c>
       <c r="D21" s="19" t="s">
@@ -2297,8 +2285,8 @@
       </c>
     </row>
     <row r="22" spans="2:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B22" s="35"/>
-      <c r="C22" s="30"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="19" t="s">
         <v>93</v>
       </c>
@@ -2322,8 +2310,8 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B23" s="35"/>
-      <c r="C23" s="30"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="48"/>
       <c r="D23" s="19" t="s">
         <v>94</v>
       </c>
@@ -2345,8 +2333,8 @@
       <c r="J23" s="12"/>
     </row>
     <row r="24" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B24" s="35"/>
-      <c r="C24" s="29" t="s">
+      <c r="B24" s="53"/>
+      <c r="C24" s="47" t="s">
         <v>105</v>
       </c>
       <c r="D24" s="19" t="s">
@@ -2370,8 +2358,8 @@
       <c r="J24" s="12"/>
     </row>
     <row r="25" spans="2:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B25" s="35"/>
-      <c r="C25" s="30"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="48"/>
       <c r="D25" s="19" t="s">
         <v>107</v>
       </c>
@@ -2393,234 +2381,225 @@
       <c r="J25" s="12"/>
     </row>
     <row r="28" spans="2:10" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="34"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B29" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="40"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B29" s="41" t="s">
+      <c r="D29" s="30">
+        <v>2.1</v>
+      </c>
+      <c r="E29" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="F29" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="D29" s="47">
-        <v>2.1</v>
-      </c>
-      <c r="E29" s="44" t="s">
+      <c r="G29" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="F29" s="44" t="s">
+      <c r="H29" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="G29" s="44" t="s">
+      <c r="I29" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="H29" s="44" t="s">
+      <c r="J29" s="38"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B30" s="36"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="28"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B31" s="36"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="31"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B32" s="36"/>
+      <c r="C32" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="I29" s="44" t="s">
+      <c r="D32" s="30">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E32" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="J29" s="48"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B30" s="42"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="49"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B31" s="42"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="50"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B32" s="42"/>
-      <c r="C32" s="44" t="s">
+      <c r="F32" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="G32" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="D32" s="47">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E32" s="51" t="s">
+      <c r="H32" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="F32" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="G32" s="44" t="s">
+      <c r="I32" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="J32" s="27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B33" s="36"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="28"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B34" s="36"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="31"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B35" s="36"/>
+      <c r="C35" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" s="30">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="I35" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="H32" s="44" t="s">
-        <v>143</v>
-      </c>
-      <c r="I32" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="J32" s="53" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B33" s="42"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="49"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B34" s="42"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="50"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B35" s="42"/>
-      <c r="C35" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="D35" s="47">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E35" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="F35" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="G35" s="44" t="s">
+      <c r="J35" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="H35" s="44" t="s">
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B36" s="36"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="28"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B37" s="36"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="28"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B38" s="36"/>
+      <c r="C38" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="I35" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="J35" s="53" t="s">
+      <c r="D38" s="30">
+        <v>2.4</v>
+      </c>
+      <c r="E38" s="23" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B36" s="42"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="49"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B37" s="42"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="49"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B38" s="42"/>
-      <c r="C38" s="44" t="s">
+      <c r="F38" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="D38" s="47">
-        <v>2.4</v>
-      </c>
-      <c r="E38" s="44" t="s">
+      <c r="G38" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="F38" s="44" t="s">
+      <c r="H38" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="G38" s="44" t="s">
+      <c r="I38" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="J38" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="H38" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="I38" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="J38" s="53" t="s">
-        <v>157</v>
-      </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B39" s="42"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="49"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="28"/>
     </row>
     <row r="40" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="43"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="55"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="B5:B25"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C24:C25"/>
     <mergeCell ref="B28:J28"/>
     <mergeCell ref="B29:B40"/>
     <mergeCell ref="C29:C31"/>
@@ -2637,15 +2616,24 @@
     <mergeCell ref="F32:F34"/>
     <mergeCell ref="G32:G34"/>
     <mergeCell ref="H32:H34"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="B5:B25"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Test/CanToolAPPTestCase11组测试结果.xlsx
+++ b/Test/CanToolAPPTestCase11组测试结果.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="182">
   <si>
     <t>预期结果</t>
   </si>
@@ -767,6 +767,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>设置正常的物理值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在CanToolApp界面设置物理值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置正常并显示在CanToolAppGUI界面上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以正常显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2下界值测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下界边界值测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据物理值的范围设置下界值及其左右数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示用户输入值超出范围，重新输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有提示用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认取范围内的最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3上界值测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上界边界值测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据物理值的范围设置上界值及其左右数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示用户输入非法，重新输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>windowsapp没有保存的原来属性的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Return: \r for Open OK, \BEL for Failure.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功，数据也会分开显示，但是如果是同一端口的数据，会覆盖上一个数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功，能够正确显示，但是物理意义表示不清晰，如果能知道其代表的物理意义会更好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次发送数据如果超过字数限制范围会出现不解析的情况，还有如果发送的数据不是在数据库会出现不解析的情况，需要点击模拟接收才能解析。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cantool装置没有此功能，会对传过来的命令返回\r或者\BEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>2</t>
     </r>
@@ -782,7 +878,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设置正常的物理值</t>
+    <t>根据物理值的范围设置正常的物理值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示用户输入值超出范围，重新输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认取范围内的最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认取范围内的最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等价化分类测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1正常值数字测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常的数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据物理值的范围设置正常的数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以正常显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2字母测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字母测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在设置物理值的文本框中输入字母包含大小写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示用户输入非法，重新输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3汉字值测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉字测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在设置物理值的文本框中输入汉字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4非法字符测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法字符测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在输入物理值的文本框输入非法字符，比如@,%,$,&amp;等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有提示用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认取范围内最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5组合测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合字符测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -790,127 +974,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>根据物理值的范围设置正常的物理值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置正常并显示在CanToolAppGUI界面上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以正常显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2下界值测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下界边界值测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据物理值的范围设置下界值及其左右数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示用户输入值超出范围，重新输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有提示用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有提示用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认取范围内的最小值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.3上界值测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上界边界值测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据物理值的范围设置上界值及其左右数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示用户输入值超出范围，重新输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认取范围内的最大值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.4非法字符测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入非法字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以在CanToolApp界面设置物理值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在输入物理值的地方输入非法字符，比如字母或者汉字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示用户输入非法，重新输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认取范围内最小值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>windowsapp没有保存的原来属性的功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Return: \r for Open OK, \BEL for Failure.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功，数据也会分开显示，但是如果是同一端口的数据，会覆盖上一个数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功，能够正确显示，但是物理意义表示不清晰，如果能知道其代表的物理意义会更好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单次发送数据如果超过字数限制范围会出现不解析的情况，还有如果发送的数据不是在数据库会出现不解析的情况，需要点击模拟接收才能解析。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cantool装置没有此功能，会对传过来的命令返回\r或者\BEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功</t>
+    <t>在输入物理值的文本框输入组合字符，如1t&amp;等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -991,7 +1055,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1314,11 +1378,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
@@ -1384,60 +1496,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1484,6 +1542,85 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1790,11 +1927,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L40"/>
+  <dimension ref="B1:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1815,30 +1952,30 @@
   <sheetData>
     <row r="1" spans="2:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="28"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="41"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="43"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="25"/>
     </row>
     <row r="4" spans="2:12" ht="27" x14ac:dyDescent="0.15">
       <c r="B4" s="10" t="s">
@@ -1870,10 +2007,10 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -1897,8 +2034,8 @@
       <c r="J5" s="15"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B6" s="53"/>
-      <c r="C6" s="50"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1920,8 +2057,8 @@
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B7" s="53"/>
-      <c r="C7" s="50"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
@@ -1943,8 +2080,8 @@
       <c r="J7" s="12"/>
     </row>
     <row r="8" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B8" s="53"/>
-      <c r="C8" s="50"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="19" t="s">
         <v>24</v>
       </c>
@@ -1964,12 +2101,12 @@
         <v>119</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B9" s="53"/>
-      <c r="C9" s="50"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="19" t="s">
         <v>27</v>
       </c>
@@ -1991,8 +2128,8 @@
       <c r="J9" s="12"/>
     </row>
     <row r="10" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B10" s="53"/>
-      <c r="C10" s="47" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="29" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="19" t="s">
@@ -2016,8 +2153,8 @@
       <c r="J10" s="12"/>
     </row>
     <row r="11" spans="2:12" ht="162" x14ac:dyDescent="0.15">
-      <c r="B11" s="53"/>
-      <c r="C11" s="48"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="19" t="s">
         <v>35</v>
       </c>
@@ -2039,8 +2176,8 @@
       <c r="J11" s="12"/>
     </row>
     <row r="12" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B12" s="53"/>
-      <c r="C12" s="48"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="19" t="s">
         <v>44</v>
       </c>
@@ -2054,16 +2191,16 @@
         <v>49</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="J12" s="12"/>
     </row>
     <row r="13" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="53"/>
-      <c r="C13" s="48"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="19" t="s">
         <v>45</v>
       </c>
@@ -2080,13 +2217,13 @@
         <v>51</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="J13" s="12"/>
     </row>
     <row r="14" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B14" s="53"/>
-      <c r="C14" s="49" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="31" t="s">
         <v>54</v>
       </c>
       <c r="D14" s="19" t="s">
@@ -2110,8 +2247,8 @@
       <c r="J14" s="12"/>
     </row>
     <row r="15" spans="2:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="B15" s="53"/>
-      <c r="C15" s="50"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="19" t="s">
         <v>56</v>
       </c>
@@ -2128,13 +2265,13 @@
         <v>65</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="2:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="B16" s="53"/>
-      <c r="C16" s="50"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="19" t="s">
         <v>57</v>
       </c>
@@ -2151,14 +2288,14 @@
         <v>69</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="B17" s="54"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="17"/>
       <c r="D17" s="21" t="s">
         <v>82</v>
@@ -2176,15 +2313,15 @@
         <v>86</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="J17" s="12" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="B18" s="53"/>
-      <c r="C18" s="49" t="s">
+      <c r="B18" s="35"/>
+      <c r="C18" s="31" t="s">
         <v>70</v>
       </c>
       <c r="D18" s="19" t="s">
@@ -2203,15 +2340,15 @@
         <v>79</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="B19" s="53"/>
-      <c r="C19" s="50"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="19" t="s">
         <v>72</v>
       </c>
@@ -2235,8 +2372,8 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B20" s="53"/>
-      <c r="C20" s="55"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="19" t="s">
         <v>73</v>
       </c>
@@ -2253,13 +2390,13 @@
         <v>89</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="J20" s="12"/>
     </row>
     <row r="21" spans="2:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="B21" s="53"/>
-      <c r="C21" s="47" t="s">
+      <c r="B21" s="35"/>
+      <c r="C21" s="29" t="s">
         <v>90</v>
       </c>
       <c r="D21" s="19" t="s">
@@ -2285,8 +2422,8 @@
       </c>
     </row>
     <row r="22" spans="2:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B22" s="53"/>
-      <c r="C22" s="48"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="19" t="s">
         <v>93</v>
       </c>
@@ -2310,8 +2447,8 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B23" s="53"/>
-      <c r="C23" s="48"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="19" t="s">
         <v>94</v>
       </c>
@@ -2333,8 +2470,8 @@
       <c r="J23" s="12"/>
     </row>
     <row r="24" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B24" s="53"/>
-      <c r="C24" s="47" t="s">
+      <c r="B24" s="35"/>
+      <c r="C24" s="29" t="s">
         <v>105</v>
       </c>
       <c r="D24" s="19" t="s">
@@ -2358,8 +2495,8 @@
       <c r="J24" s="12"/>
     </row>
     <row r="25" spans="2:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B25" s="53"/>
-      <c r="C25" s="48"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="19" t="s">
         <v>107</v>
       </c>
@@ -2380,217 +2517,505 @@
       </c>
       <c r="J25" s="12"/>
     </row>
-    <row r="28" spans="2:10" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="B28" s="32" t="s">
+    <row r="29" spans="2:10" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="B29" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="34"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B29" s="35" t="s">
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="40"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B30" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C30" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" s="47">
+        <v>2.1</v>
+      </c>
+      <c r="E30" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="D29" s="30">
-        <v>2.1</v>
-      </c>
-      <c r="E29" s="23" t="s">
+      <c r="F30" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="G30" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="H30" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="I30" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="J30" s="48"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B31" s="42"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="49"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B32" s="42"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="50"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B33" s="42"/>
+      <c r="C33" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="I29" s="23" t="s">
+      <c r="D33" s="47">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E33" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="J29" s="38"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B30" s="36"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="28"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B31" s="36"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="31"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B32" s="36"/>
-      <c r="C32" s="23" t="s">
+      <c r="F33" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="G33" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="D32" s="30">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E32" s="39" t="s">
+      <c r="H33" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="I33" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="J33" s="53" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B34" s="42"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="49"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B35" s="42"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="50"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B36" s="42"/>
+      <c r="C36" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="47">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E36" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="G36" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="H36" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="I36" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="J36" s="53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B37" s="42"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="49"/>
+    </row>
+    <row r="38" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="43"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="55"/>
+    </row>
+    <row r="39" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="56"/>
+    </row>
+    <row r="40" spans="2:10" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="B40" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="40"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B41" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" s="47">
+        <v>3.1</v>
+      </c>
+      <c r="E41" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="F41" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="G41" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="H41" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="G32" s="23" t="s">
+      <c r="I41" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="J41" s="48"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B42" s="59"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="49"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B43" s="59"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="50"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B44" s="59"/>
+      <c r="C44" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="D44" s="47">
+        <v>3.2</v>
+      </c>
+      <c r="E44" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="F44" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="G44" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="H44" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="I44" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="H32" s="23" t="s">
+      <c r="J44" s="53" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B45" s="59"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="49"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B46" s="59"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="50"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B47" s="59"/>
+      <c r="C47" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="D47" s="47">
+        <v>3.3</v>
+      </c>
+      <c r="E47" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="F47" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="G47" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="H47" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="I47" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="J47" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="I32" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="J32" s="27" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B33" s="36"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="28"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B34" s="36"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="31"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B35" s="36"/>
-      <c r="C35" s="23" t="s">
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B48" s="59"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="49"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B49" s="59"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="50"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B50" s="59"/>
+      <c r="C50" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="D50" s="47">
+        <v>3.4</v>
+      </c>
+      <c r="E50" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="F50" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="G50" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="H50" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="D35" s="30">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="H35" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="I35" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="J35" s="27" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B36" s="36"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="28"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B37" s="36"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="28"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B38" s="36"/>
-      <c r="C38" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="D38" s="30">
-        <v>2.4</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="F38" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="G38" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="H38" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="I38" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="J38" s="27" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B39" s="36"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="28"/>
-    </row>
-    <row r="40" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="37"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="29"/>
+      <c r="I50" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="J50" s="53" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B51" s="59"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="49"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B52" s="59"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="49"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B53" s="59"/>
+      <c r="C53" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="D53" s="45">
+        <v>3.5</v>
+      </c>
+      <c r="E53" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="F53" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="G53" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="H53" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="I53" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="J53" s="61" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B54" s="59"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="62"/>
+    </row>
+    <row r="55" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="63"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="77">
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="J53:J55"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="B41:B55"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="J41:J43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="J33:J35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="J36:J38"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="J30:J32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="H33:H35"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="C10:C13"/>
@@ -2600,40 +3025,6 @@
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B29:B40"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="I29:I31"/>
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="G38:G40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Test/CanToolAPPTestCase11组测试结果.xlsx
+++ b/Test/CanToolAPPTestCase11组测试结果.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="196">
   <si>
     <t>预期结果</t>
   </si>
@@ -104,10 +104,6 @@
   </si>
   <si>
     <t>设置相应COM口波特率115200、数据位数8、停止位数1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置完出口属性后，COM串口连接成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -488,10 +484,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CanTool装置将接收到传过来的Can信息命令Return: “\r”for  OK, “\BEL” for Failure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户在GUI界面上输入的Can信息命令，实例：以定周期发送 “t12F4112233F40110\r”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -605,10 +597,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>仪表盘上出现数值变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>显示物理值动态曲线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -683,184 +671,218 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>加载Can信息数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can信息数据库存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击加载Can信息数据库按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功加载Can信息数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭串口设置窗口，再次打开串口设置界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windowsapp有仪表盘信息，但是不会实时显示数据在仪表盘上的变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windowsapp有实时曲线信息，但是不会实时显示数据在数据的实时的变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有此功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示的物理值物理含义不清晰，没有用汉语标出代表的意思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>windowsapp没有保存的原来属性的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Return: \r for Open OK, \BEL for Failure.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次发送数据如果超过字数限制范围会出现不解析的情况，还有如果发送的数据不是在数据库会出现不解析的情况，需要点击模拟接收才能解析。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app能够正确弹出COM口管理界面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app能够正确弹出所有COM口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置完出口属性后，COM串口连接成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM串口能够连接成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com串口不能看到原来连接的属性，还是显示的原来的默认值COM1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接成功显示灯亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功返回了版本信息SV2.5-HV2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功返回\r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功返回了\r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功返回了\r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功返回了字符串信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功显示了解析结果，对于不识别的结果，只显示了端口信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功，数据也会分开显示，但是如果是同一端口的数据，会覆盖上一个数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功，数据也会分开显示，但是如果是同一端口的数据，会覆盖上一个数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功，能够正确显示，但是物理意义表示不清晰，如果能知道其代表的物理意义会更好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功，能够正确显示，但是物理意义表示不清晰，如果能知道其代表的物理意义会更好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanTool装置将接收到传过来的Can信息命令Return: “\r”for  OK, “\BEL” for Failure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确的字符，Cantool装置成功返回了信息\r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为没有canbus总线，所以此功能无法测试，但是cantool装置能够对接收到的信息返回\r或者\BEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于设置的物理值,发送了相应的字符串，并且成功返回了\r.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仪表盘上出现数值变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仪表盘上没有出现数值变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时曲线没有发生变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>成功显示数据库信息的树状结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加载Can信息数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Can信息数据库存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击加载Can信息数据库按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功加载Can信息数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭串口设置窗口，再次打开串口设置界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Windowsapp有仪表盘信息，但是不会实时显示数据在仪表盘上的变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Windowsapp有实时曲线信息，但是不会实时显示数据在数据的实时的变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有此功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示的物理值物理含义不清晰，没有用汉语标出代表的意思</t>
+    <t>成功显示数据库信息的树状结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>边界值测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CanToolApp中设置物理值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置正常的物理值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以在CanToolApp界面设置物理值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置正常并显示在CanToolAppGUI界面上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以正常显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2下界值测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下界边界值测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据物理值的范围设置下界值及其左右数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示用户输入值超出范围，重新输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有提示用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认取范围内的最小值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.3上界值测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上界边界值测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据物理值的范围设置上界值及其左右数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示用户输入非法，重新输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>windowsapp没有保存的原来属性的功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Return: \r for Open OK, \BEL for Failure.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功，数据也会分开显示，但是如果是同一端口的数据，会覆盖上一个数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功，能够正确显示，但是物理意义表示不清晰，如果能知道其代表的物理意义会更好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单次发送数据如果超过字数限制范围会出现不解析的情况，还有如果发送的数据不是在数据库会出现不解析的情况，需要点击模拟接收才能解析。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cantool装置没有此功能，会对传过来的命令返回\r或者\BEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -875,114 +897,112 @@
       </rPr>
       <t>.1正常值测试</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置正常的物理值</t>
+  </si>
+  <si>
+    <t>可以在CanToolApp界面设置物理值</t>
   </si>
   <si>
     <t>根据物理值的范围设置正常的物理值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置正常并显示在CanToolAppGUI界面上</t>
+  </si>
+  <si>
+    <t>可以正常显示</t>
+  </si>
+  <si>
+    <t>2.2下界值测试</t>
+  </si>
+  <si>
+    <t>下界边界值测试</t>
+  </si>
+  <si>
+    <t>根据物理值的范围设置下界值及其左右数值</t>
   </si>
   <si>
     <t>提示用户输入值超出范围，重新输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有提示用户</t>
   </si>
   <si>
     <t>默认取范围内的最小值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3上界值测试</t>
+  </si>
+  <si>
+    <t>上界边界值测试</t>
+  </si>
+  <si>
+    <t>根据物理值的范围设置上界值及其左右数值</t>
   </si>
   <si>
     <t>默认取范围内的最大值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>等价化分类测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3.1正常值数字测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>正常的数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>根据物理值的范围设置正常的数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以正常显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3.2字母测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>字母测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>在设置物理值的文本框中输入字母包含大小写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>提示用户输入非法，重新输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3.3汉字值测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>汉字测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>在设置物理值的文本框中输入汉字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3.4非法字符测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>非法字符测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>在输入物理值的文本框输入非法字符，比如@,%,$,&amp;等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有提示用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>默认取范围内最小值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3.5组合测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>组合字符测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以在CanToolApp界面设置物理值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>在输入物理值的文本框输入组合字符，如1t&amp;等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1040,8 +1060,16 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1052,6 +1080,11 @@
       <patternFill patternType="solid">
         <fgColor indexed="44"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -1092,21 +1125,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1233,29 +1251,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1267,17 +1265,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1294,48 +1281,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -1344,13 +1289,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1358,23 +1305,23 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1393,8 +1340,61 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -1404,7 +1404,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -1417,8 +1417,43 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right/>
+      <top style="medium">
         <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
@@ -1427,10 +1462,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
@@ -1460,27 +1499,21 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1490,20 +1523,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1513,119 +1550,132 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1638,6 +1688,891 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1300926</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2089042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10825926" y="1428750"/>
+          <a:ext cx="1556574" cy="2022367"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2711764</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12592050" y="3486151"/>
+          <a:ext cx="1378264" cy="1790699"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1343025</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2721289</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1990725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12601575" y="5305425"/>
+          <a:ext cx="1378264" cy="1943100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1343025</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2714976</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1828800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12601575" y="7305675"/>
+          <a:ext cx="1371951" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2829183</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>676349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12239625" y="9286875"/>
+          <a:ext cx="1848108" cy="533474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>54873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4610100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1923821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11306175" y="10018023"/>
+          <a:ext cx="4562475" cy="1868948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4581525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1800476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11287125" y="12011025"/>
+          <a:ext cx="4552950" cy="1800476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4638675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1600200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="13868400"/>
+          <a:ext cx="4562475" cy="1590675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4619625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1609726</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11325225" y="15525751"/>
+          <a:ext cx="4552950" cy="1581150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1238250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11296651" y="17173576"/>
+          <a:ext cx="4648200" cy="1219199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4648200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1943100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11296649" y="18440401"/>
+          <a:ext cx="4610101" cy="1914524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1409701</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11296650" y="20383501"/>
+          <a:ext cx="4638675" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1466849</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4629149</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1514474</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11287124" y="21850349"/>
+          <a:ext cx="4600575" cy="1514475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4657725</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1523999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11296650" y="23507699"/>
+          <a:ext cx="4619625" cy="1438275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>685799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4657725</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1266824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11296650" y="25707974"/>
+          <a:ext cx="4619625" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4648200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1426721</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11296650" y="27146250"/>
+          <a:ext cx="4610100" cy="1398146"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4629788</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1228725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11315700" y="28622626"/>
+          <a:ext cx="4572638" cy="1190624"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4543425</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1181099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="30889574"/>
+          <a:ext cx="4467225" cy="1133475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4638675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1323975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11277600" y="29879926"/>
+          <a:ext cx="4619625" cy="1285874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3629395</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>2896000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12239625" y="32508825"/>
+          <a:ext cx="2648320" cy="2867425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1927,11 +2862,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L55"/>
+  <dimension ref="B1:N58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J58" sqref="J58"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1944,41 +2879,46 @@
     <col min="6" max="6" width="19.75" style="2" customWidth="1"/>
     <col min="7" max="7" width="26.875" style="2" customWidth="1"/>
     <col min="8" max="8" width="24.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="22.75" style="8" customWidth="1"/>
-    <col min="10" max="10" width="35.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="18.5" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="9" max="10" width="22.75" style="8" customWidth="1"/>
+    <col min="11" max="11" width="61.25" style="8" customWidth="1"/>
+    <col min="12" max="12" width="35.5" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.5" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="26" t="s">
+    <row r="1" spans="2:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:14" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="25"/>
-    </row>
-    <row r="4" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B4" s="10" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23"/>
+    </row>
+    <row r="4" spans="2:14" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="41" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -2002,40 +2942,50 @@
       <c r="I4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="L4" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="33" t="s">
+    <row r="5" spans="2:14" ht="167.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="42" t="s">
         <v>32</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>31</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B6" s="35"/>
-      <c r="C6" s="32"/>
+        <v>112</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" s="28"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="2:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="43"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
@@ -2052,13 +3002,17 @@
         <v>18</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B7" s="35"/>
-      <c r="C7" s="32"/>
+        <v>113</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="K6" s="29"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="2:14" ht="159.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="43"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
@@ -2068,902 +3022,1020 @@
       <c r="F7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="K7" s="29"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="2:14" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="43"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B8" s="35"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>24</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>25</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="K8" s="29"/>
+      <c r="L8" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="43"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="K9" s="29"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="2:14" ht="161.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="43"/>
+      <c r="C10" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="K10" s="29"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="2:14" ht="145.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="43"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="K11" s="29"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="2:14" ht="129" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="43"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="K12" s="29"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="2:14" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="43"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="29"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="2:14" ht="99" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="43"/>
+      <c r="C14" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" s="29"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="2:14" ht="155.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="43"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15" s="29"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="2:14" ht="115.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="43"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" s="29"/>
+      <c r="L16" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="43"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="J17" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" s="29"/>
+      <c r="L17" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="126" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="43"/>
+      <c r="C18" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="K18" s="29"/>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="2:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="B19" s="43"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="K19" s="29"/>
+      <c r="L19" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="111" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="43"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="K20" s="29"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="2:12" ht="115.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="43"/>
+      <c r="C21" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="K21" s="29"/>
+      <c r="L21" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="H8" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="3" t="s">
+    </row>
+    <row r="22" spans="2:12" ht="99" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="43"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="J8" s="12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B9" s="35"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="J22" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="K22" s="29"/>
+      <c r="L22" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B10" s="35"/>
-      <c r="C10" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="2:12" ht="162" x14ac:dyDescent="0.15">
-      <c r="B11" s="35"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B12" s="35"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="35"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B14" s="35"/>
-      <c r="C14" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J14" s="12"/>
-    </row>
-    <row r="15" spans="2:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="B15" s="35"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="J15" s="12"/>
-    </row>
-    <row r="16" spans="2:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="B16" s="35"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="B17" s="36"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="B18" s="35"/>
-      <c r="C18" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="B19" s="35"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B20" s="35"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="2:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="B21" s="35"/>
-      <c r="C21" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="20" t="s">
+    </row>
+    <row r="23" spans="2:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="43"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="I21" s="3" t="s">
+      <c r="E23" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="11"/>
+    </row>
+    <row r="24" spans="2:12" ht="98.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="43"/>
+      <c r="C24" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="11"/>
+    </row>
+    <row r="25" spans="2:12" ht="235.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="44"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="I25" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="J21" s="12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B22" s="35"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B23" s="35"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B24" s="35"/>
-      <c r="C24" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J24" s="12"/>
-    </row>
-    <row r="25" spans="2:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B25" s="35"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="J25" s="12"/>
-    </row>
-    <row r="29" spans="2:10" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="B29" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B30" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="C30" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="D30" s="47">
+      <c r="J25" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="K25" s="30"/>
+      <c r="L25" s="11"/>
+    </row>
+    <row r="27" spans="2:12" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E27" s="32"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+    </row>
+    <row r="28" spans="2:12" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E28" s="32"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+    </row>
+    <row r="29" spans="2:12" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E29" s="32"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+    </row>
+    <row r="30" spans="2:12" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E30" s="32"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+    </row>
+    <row r="31" spans="2:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31" s="56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="59"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B33" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" s="50">
         <v>2.1</v>
       </c>
-      <c r="E30" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="F30" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="G30" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="H30" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="I30" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="J30" s="48"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B31" s="42"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="49"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B32" s="42"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="50"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B33" s="42"/>
-      <c r="C33" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="D33" s="47">
+      <c r="E33" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="F33" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="G33" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="H33" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="I33" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="J33" s="61"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B34" s="60"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="61"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B35" s="60"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="62"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B36" s="60"/>
+      <c r="C36" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" s="49">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E33" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="F33" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="G33" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="H33" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="I33" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="J33" s="53" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B34" s="42"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="49"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B35" s="42"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="50"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B36" s="42"/>
-      <c r="C36" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="D36" s="47">
+      <c r="E36" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="F36" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="G36" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="H36" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="I36" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="J36" s="63" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B37" s="60"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="61"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B38" s="60"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="62"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B39" s="60"/>
+      <c r="C39" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="D39" s="49">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E36" s="44" t="s">
-        <v>143</v>
-      </c>
-      <c r="F36" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="G36" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="H36" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="I36" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="J36" s="53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B37" s="42"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="49"/>
-    </row>
-    <row r="38" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="43"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="55"/>
-    </row>
-    <row r="39" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="56"/>
-    </row>
-    <row r="40" spans="2:10" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="B40" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="40"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B41" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="C41" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="D41" s="47">
-        <v>3.1</v>
-      </c>
-      <c r="E41" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="F41" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="G41" s="44" t="s">
+      <c r="E39" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="F39" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="H41" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="I41" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="J41" s="48"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B42" s="59"/>
+      <c r="G39" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="H39" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="I39" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="J39" s="63" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B40" s="60"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="61"/>
+    </row>
+    <row r="41" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="64"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="65"/>
+    </row>
+    <row r="42" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="66"/>
       <c r="C42" s="45"/>
       <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
+      <c r="E42" s="46"/>
       <c r="F42" s="45"/>
       <c r="G42" s="45"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="49"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B43" s="59"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="50"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="67"/>
+    </row>
+    <row r="43" spans="2:10" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="B43" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="69"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B44" s="59"/>
-      <c r="C44" s="44" t="s">
+      <c r="B44" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="D44" s="49">
+        <v>3.1</v>
+      </c>
+      <c r="E44" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="F44" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="G44" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="H44" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="D44" s="47">
+      <c r="I44" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="J44" s="63"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="61"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B46" s="50"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="62"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B47" s="50"/>
+      <c r="C47" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="D47" s="49">
         <v>3.2</v>
       </c>
-      <c r="E44" s="51" t="s">
-        <v>167</v>
-      </c>
-      <c r="F44" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="G44" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="H44" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="I44" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="J44" s="53" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B45" s="59"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="49"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B46" s="59"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="50"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B47" s="59"/>
-      <c r="C47" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="D47" s="47">
+      <c r="E47" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="F47" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="G47" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="H47" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="I47" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="J47" s="63" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B48" s="50"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="61"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B49" s="50"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="62"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B50" s="50"/>
+      <c r="C50" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="D50" s="49">
         <v>3.3</v>
       </c>
-      <c r="E47" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="F47" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="G47" s="44" t="s">
+      <c r="E50" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="F50" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="G50" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="H50" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="I50" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="H47" s="60" t="s">
-        <v>145</v>
-      </c>
-      <c r="I47" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="J47" s="53" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B48" s="59"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="49"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B49" s="59"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="46"/>
-      <c r="J49" s="50"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B50" s="59"/>
-      <c r="C50" s="44" t="s">
+      <c r="J50" s="63" t="s">
         <v>173</v>
       </c>
-      <c r="D50" s="47">
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="61"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B52" s="50"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="62"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B53" s="50"/>
+      <c r="C53" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="D53" s="49">
         <v>3.4</v>
       </c>
-      <c r="E50" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="F50" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="G50" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="H50" s="60" t="s">
-        <v>145</v>
-      </c>
-      <c r="I50" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="J50" s="53" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B51" s="59"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="45"/>
-      <c r="J51" s="49"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B52" s="59"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="49"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B53" s="59"/>
-      <c r="C53" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="D53" s="45">
+      <c r="E53" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="F53" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="G53" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="H53" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="I53" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="J53" s="63" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B54" s="50"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="61"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B55" s="50"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="61"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B56" s="50"/>
+      <c r="C56" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="D56" s="50">
         <v>3.5</v>
       </c>
-      <c r="E53" s="60" t="s">
-        <v>179</v>
-      </c>
-      <c r="F53" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="G53" s="60" t="s">
-        <v>181</v>
-      </c>
-      <c r="H53" s="60" t="s">
-        <v>145</v>
-      </c>
-      <c r="I53" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="J53" s="61" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B54" s="59"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="62"/>
-    </row>
-    <row r="55" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="63"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="54"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="46"/>
-      <c r="J55" s="64"/>
+      <c r="E56" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="F56" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="G56" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="H56" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="I56" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="J56" s="50" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B57" s="50"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="50"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B58" s="51"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="I50:I52"/>
-    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="G56:G58"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="J56:J58"/>
     <mergeCell ref="C53:C55"/>
     <mergeCell ref="D53:D55"/>
     <mergeCell ref="E53:E55"/>
     <mergeCell ref="F53:F55"/>
     <mergeCell ref="G53:G55"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="J53:J55"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="H44:H46"/>
     <mergeCell ref="I44:I46"/>
     <mergeCell ref="J44:J46"/>
     <mergeCell ref="C47:C49"/>
@@ -2974,22 +4046,27 @@
     <mergeCell ref="H47:H49"/>
     <mergeCell ref="I47:I49"/>
     <mergeCell ref="J47:J49"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="B41:B55"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="J41:J43"/>
+    <mergeCell ref="B44:B58"/>
     <mergeCell ref="C44:C46"/>
     <mergeCell ref="D44:D46"/>
     <mergeCell ref="E44:E46"/>
     <mergeCell ref="F44:F46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B33:B41"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="H33:H35"/>
     <mergeCell ref="I33:I35"/>
     <mergeCell ref="J33:J35"/>
     <mergeCell ref="C36:C38"/>
@@ -3000,24 +4077,24 @@
     <mergeCell ref="H36:H38"/>
     <mergeCell ref="I36:I38"/>
     <mergeCell ref="J36:J38"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="J30:J32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="H33:H35"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="B43:J43"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="J53:J55"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B2:L2"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="C5:C9"/>
@@ -3030,5 +4107,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Test/CanToolAPPTestCase11组测试结果.xlsx
+++ b/Test/CanToolAPPTestCase11组测试结果.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="194">
   <si>
     <t>预期结果</t>
   </si>
@@ -488,11 +488,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">CanTool将以周期（后四位）例如：mmmm= 0x0110= 272ms.发送此CAN数据
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.3.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -506,10 +501,6 @@
   </si>
   <si>
     <t>根据传过来的信息通过phy=A*x+B转换成物理值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示出信息转换成的物理值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -739,10 +730,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>显示的物理值物理含义不清晰，没有用汉语标出代表的意思</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>windowsapp没有保存的原来属性的功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -823,23 +810,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成功显示了解析结果，对于不识别的结果，只显示了端口信息。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>成功，数据也会分开显示，但是如果是同一端口的数据，会覆盖上一个数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成功，数据也会分开显示，但是如果是同一端口的数据，会覆盖上一个数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功，能够正确显示，但是物理意义表示不清晰，如果能知道其代表的物理意义会更好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功，能够正确显示，但是物理意义表示不清晰，如果能知道其代表的物理意义会更好</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -996,6 +971,23 @@
   </si>
   <si>
     <t>在输入物理值的文本框输入组合字符，如1t&amp;等</t>
+  </si>
+  <si>
+    <t>成功显示了解析结果，对于不识别的结果，显示了端口信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CanTool将以周期（后四位）例如：mmmm= 0x0110= 272ms.发送此CAN数据
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示出信息转换成的物理值，并且能够保存为csv文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功，能够正确显示，但是物理意义表示不清晰，如果能知道其代表的物理意义会更好。并且能把接收到的信息保存成CSV文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1529,6 +1521,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1550,126 +1636,32 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2864,9 +2856,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K49" sqref="K49"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2888,37 +2880,37 @@
   <sheetData>
     <row r="1" spans="2:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:14" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="60"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="57"/>
     </row>
     <row r="4" spans="2:14" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -2942,21 +2934,21 @@
       <c r="I4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="K4" s="27" t="s">
-        <v>134</v>
+      <c r="J4" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>131</v>
       </c>
       <c r="L4" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="167.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="65" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -2975,17 +2967,17 @@
         <v>13</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="K5" s="28"/>
+        <v>110</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5" s="22"/>
       <c r="L5" s="14"/>
     </row>
     <row r="6" spans="2:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="43"/>
-      <c r="C6" s="35"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
@@ -3002,17 +2994,17 @@
         <v>18</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="K6" s="29"/>
+        <v>111</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="K6" s="23"/>
       <c r="L6" s="11"/>
     </row>
     <row r="7" spans="2:14" ht="159.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="43"/>
-      <c r="C7" s="35"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
@@ -3026,20 +3018,20 @@
         <v>22</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="K7" s="29"/>
+        <v>111</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="K7" s="23"/>
       <c r="L7" s="11"/>
     </row>
     <row r="8" spans="2:14" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="43"/>
-      <c r="C8" s="35"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="17" t="s">
         <v>23</v>
       </c>
@@ -3050,25 +3042,25 @@
         <v>16</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>25</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="K8" s="29"/>
+        <v>113</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="K8" s="23"/>
       <c r="L8" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="43"/>
-      <c r="C9" s="35"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="17" t="s">
         <v>26</v>
       </c>
@@ -3085,17 +3077,17 @@
         <v>30</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="K9" s="29"/>
+        <v>114</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="K9" s="23"/>
       <c r="L9" s="11"/>
     </row>
     <row r="10" spans="2:14" ht="161.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="43"/>
-      <c r="C10" s="36" t="s">
+      <c r="B10" s="67"/>
+      <c r="C10" s="61" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="17" t="s">
@@ -3114,17 +3106,17 @@
         <v>38</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="K10" s="29"/>
+        <v>110</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="K10" s="23"/>
       <c r="L10" s="11"/>
     </row>
     <row r="11" spans="2:14" ht="145.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="43"/>
-      <c r="C11" s="37"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="17" t="s">
         <v>34</v>
       </c>
@@ -3141,17 +3133,17 @@
         <v>42</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K11" s="29"/>
+        <v>120</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="K11" s="23"/>
       <c r="L11" s="11"/>
     </row>
     <row r="12" spans="2:14" ht="129" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="43"/>
-      <c r="C12" s="37"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="17" t="s">
         <v>43</v>
       </c>
@@ -3165,20 +3157,20 @@
         <v>48</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="J12" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="K12" s="29"/>
+        <v>128</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" s="23"/>
       <c r="L12" s="11"/>
     </row>
     <row r="13" spans="2:14" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="43"/>
-      <c r="C13" s="37"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="17" t="s">
         <v>44</v>
       </c>
@@ -3195,17 +3187,17 @@
         <v>50</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="J13" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="K13" s="29"/>
+        <v>128</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" s="23"/>
       <c r="L13" s="11"/>
     </row>
     <row r="14" spans="2:14" ht="99" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="43"/>
-      <c r="C14" s="38" t="s">
+      <c r="B14" s="67"/>
+      <c r="C14" s="63" t="s">
         <v>53</v>
       </c>
       <c r="D14" s="17" t="s">
@@ -3224,17 +3216,17 @@
         <v>60</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="J14" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="K14" s="29"/>
+        <v>111</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="K14" s="23"/>
       <c r="L14" s="11"/>
     </row>
     <row r="15" spans="2:14" ht="155.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="43"/>
-      <c r="C15" s="35"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="17" t="s">
         <v>55</v>
       </c>
@@ -3251,17 +3243,17 @@
         <v>64</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J15" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="K15" s="29"/>
+        <v>125</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="K15" s="23"/>
       <c r="L15" s="11"/>
     </row>
     <row r="16" spans="2:14" ht="115.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="43"/>
-      <c r="C16" s="35"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="17" t="s">
         <v>56</v>
       </c>
@@ -3278,48 +3270,46 @@
         <v>68</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="J16" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="K16" s="29"/>
+        <v>143</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" s="23"/>
       <c r="L16" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="43"/>
-      <c r="C17" s="39"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="F17" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="G17" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="16" t="s">
-        <v>83</v>
-      </c>
       <c r="H17" s="16" t="s">
-        <v>84</v>
+        <v>192</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="J17" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="11" t="s">
-        <v>125</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="K17" s="23"/>
+      <c r="L17" s="11"/>
     </row>
     <row r="18" spans="2:12" ht="126" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="43"/>
-      <c r="C18" s="38" t="s">
+      <c r="B18" s="67"/>
+      <c r="C18" s="63" t="s">
         <v>69</v>
       </c>
       <c r="D18" s="17" t="s">
@@ -3335,20 +3325,20 @@
         <v>75</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="J18" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="K18" s="29"/>
+        <v>133</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="K18" s="23"/>
       <c r="L18" s="11"/>
     </row>
     <row r="19" spans="2:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="B19" s="43"/>
-      <c r="C19" s="35"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="17" t="s">
         <v>71</v>
       </c>
@@ -3362,703 +3352,693 @@
         <v>78</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J19" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="K19" s="29"/>
+        <v>121</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="K19" s="23"/>
       <c r="L19" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="111" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="43"/>
-      <c r="C20" s="40"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="17" t="s">
         <v>72</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>39</v>
       </c>
       <c r="G20" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="K20" s="23"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="2:12" ht="115.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="67"/>
+      <c r="C21" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="D21" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J20" s="29" t="s">
+      <c r="E21" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="K21" s="23"/>
+      <c r="L21" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="99" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="67"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="23"/>
+      <c r="L22" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="67"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="11"/>
+    </row>
+    <row r="24" spans="2:12" ht="98.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="67"/>
+      <c r="C24" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="11"/>
+    </row>
+    <row r="25" spans="2:12" ht="235.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="68"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="K25" s="24"/>
+      <c r="L25" s="11"/>
+    </row>
+    <row r="27" spans="2:12" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E27" s="26"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+    </row>
+    <row r="28" spans="2:12" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E28" s="26"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+    </row>
+    <row r="29" spans="2:12" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E29" s="26"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+    </row>
+    <row r="30" spans="2:12" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E30" s="26"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+    </row>
+    <row r="31" spans="2:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="K20" s="29"/>
-      <c r="L20" s="11"/>
-    </row>
-    <row r="21" spans="2:12" ht="115.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="43"/>
-      <c r="C21" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="H21" s="16" t="s">
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="47"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B33" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J21" s="29" t="s">
+      <c r="C33" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="K21" s="29"/>
-      <c r="L21" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="99" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="43"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="J22" s="29" t="s">
+      <c r="D33" s="37">
+        <v>2.1</v>
+      </c>
+      <c r="E33" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="K22" s="29"/>
-      <c r="L22" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="43"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="11"/>
-    </row>
-    <row r="24" spans="2:12" ht="98.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="43"/>
-      <c r="C24" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="11"/>
-    </row>
-    <row r="25" spans="2:12" ht="235.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="44"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="H25" s="16" t="s">
+      <c r="F33" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="I25" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="J25" s="29" t="s">
+      <c r="G33" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="K25" s="30"/>
-      <c r="L25" s="11"/>
-    </row>
-    <row r="27" spans="2:12" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E27" s="32"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-    </row>
-    <row r="28" spans="2:12" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E28" s="32"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-    </row>
-    <row r="29" spans="2:12" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E29" s="32"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-    </row>
-    <row r="30" spans="2:12" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E30" s="32"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-    </row>
-    <row r="31" spans="2:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="I31" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="J31" s="56" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="58" t="s">
+      <c r="H33" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="59"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B33" s="60" t="s">
+      <c r="I33" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="J33" s="41"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B34" s="48"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="41"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B35" s="48"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="42"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B36" s="48"/>
+      <c r="C36" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="D33" s="50">
-        <v>2.1</v>
-      </c>
-      <c r="E33" s="50" t="s">
+      <c r="D36" s="39">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E36" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="F33" s="50" t="s">
+      <c r="F36" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="G36" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="G33" s="50" t="s">
+      <c r="H36" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="H33" s="50" t="s">
+      <c r="I36" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="I33" s="50" t="s">
+      <c r="J36" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="J33" s="61"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B34" s="60"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="61"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B35" s="60"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="62"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B36" s="60"/>
-      <c r="C36" s="49" t="s">
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B37" s="48"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="41"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B38" s="48"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="42"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B39" s="48"/>
+      <c r="C39" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="D36" s="49">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E36" s="52" t="s">
+      <c r="D39" s="39">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E39" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="F36" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="G36" s="49" t="s">
+      <c r="F39" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="G39" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="H36" s="49" t="s">
+      <c r="H39" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="I39" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="J39" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="I36" s="49" t="s">
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B40" s="48"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="41"/>
+    </row>
+    <row r="41" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="49"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="51"/>
+    </row>
+    <row r="42" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="35"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="36"/>
+    </row>
+    <row r="43" spans="2:10" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="B43" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="J36" s="63" t="s">
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="54"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B44" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" s="39" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B37" s="60"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="61"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B38" s="60"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="62"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B39" s="60"/>
-      <c r="C39" s="49" t="s">
+      <c r="D44" s="39">
+        <v>3.1</v>
+      </c>
+      <c r="E44" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="D39" s="49">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E39" s="49" t="s">
+      <c r="F44" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="G44" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="F39" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="G39" s="49" t="s">
+      <c r="H44" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="I44" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="J44" s="40"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="41"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B46" s="37"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="42"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B47" s="37"/>
+      <c r="C47" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="H39" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="I39" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="J39" s="63" t="s">
+      <c r="D47" s="39">
+        <v>3.2</v>
+      </c>
+      <c r="E47" s="43" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B40" s="60"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="61"/>
-    </row>
-    <row r="41" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="64"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="65"/>
-    </row>
-    <row r="42" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="66"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="67"/>
-    </row>
-    <row r="43" spans="2:10" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="B43" s="68" t="s">
+      <c r="F47" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="G47" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="69"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B44" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="C44" s="49" t="s">
+      <c r="H47" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="D44" s="49">
-        <v>3.1</v>
-      </c>
-      <c r="E44" s="49" t="s">
+      <c r="I47" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="J47" s="40" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="41"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B49" s="37"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="42"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B50" s="37"/>
+      <c r="C50" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="F44" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="G44" s="49" t="s">
+      <c r="D50" s="39">
+        <v>3.3</v>
+      </c>
+      <c r="E50" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="H44" s="49" t="s">
+      <c r="F50" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="G50" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="H50" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="I50" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="I44" s="49" t="s">
+      <c r="J50" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="J44" s="63"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="61"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B46" s="50"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="62"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B47" s="50"/>
-      <c r="C47" s="49" t="s">
-        <v>182</v>
-      </c>
-      <c r="D47" s="49">
-        <v>3.2</v>
-      </c>
-      <c r="E47" s="52" t="s">
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="41"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B52" s="37"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="42"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B53" s="37"/>
+      <c r="C53" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="F47" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="G47" s="49" t="s">
+      <c r="D53" s="39">
+        <v>3.4</v>
+      </c>
+      <c r="E53" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="H47" s="49" t="s">
+      <c r="F53" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="G53" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="I47" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="J47" s="63" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="61"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B49" s="50"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="51"/>
-      <c r="J49" s="62"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B50" s="50"/>
-      <c r="C50" s="49" t="s">
+      <c r="H53" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="I53" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="J53" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="D50" s="49">
-        <v>3.3</v>
-      </c>
-      <c r="E50" s="49" t="s">
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="41"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B55" s="37"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="41"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B56" s="37"/>
+      <c r="C56" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="F50" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="G50" s="49" t="s">
+      <c r="D56" s="37">
+        <v>3.5</v>
+      </c>
+      <c r="E56" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="H50" s="50" t="s">
-        <v>185</v>
-      </c>
-      <c r="I50" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="J50" s="63" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B51" s="50"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="61"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B52" s="50"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="62"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B53" s="50"/>
-      <c r="C53" s="49" t="s">
+      <c r="F56" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="G56" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="D53" s="49">
-        <v>3.4</v>
-      </c>
-      <c r="E53" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="F53" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="G53" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="H53" s="50" t="s">
-        <v>185</v>
-      </c>
-      <c r="I53" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="J53" s="63" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B54" s="50"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="50"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="50"/>
-      <c r="J54" s="61"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B55" s="50"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="61"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B56" s="50"/>
-      <c r="C56" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="D56" s="50">
-        <v>3.5</v>
-      </c>
-      <c r="E56" s="50" t="s">
-        <v>194</v>
-      </c>
-      <c r="F56" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="G56" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="H56" s="50" t="s">
-        <v>185</v>
-      </c>
-      <c r="I56" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="J56" s="50" t="s">
-        <v>192</v>
+      <c r="H56" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="I56" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="J56" s="37" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B57" s="50"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="50"/>
-      <c r="I57" s="50"/>
-      <c r="J57" s="50"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B58" s="51"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="51"/>
-      <c r="J58" s="51"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="G56:G58"/>
-    <mergeCell ref="H56:H58"/>
-    <mergeCell ref="I56:I58"/>
-    <mergeCell ref="J56:J58"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="B44:B58"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="B5:B25"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B43:J43"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="J36:J38"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:J41"/>
     <mergeCell ref="B32:J32"/>
     <mergeCell ref="B33:B41"/>
     <mergeCell ref="C33:C35"/>
@@ -4075,33 +4055,43 @@
     <mergeCell ref="F36:F38"/>
     <mergeCell ref="G36:G38"/>
     <mergeCell ref="H36:H38"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="J36:J38"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:J41"/>
-    <mergeCell ref="B43:J43"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="I50:I52"/>
-    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="B44:B58"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="G56:G58"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="J56:J58"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="G53:G55"/>
     <mergeCell ref="H53:H55"/>
     <mergeCell ref="I53:I55"/>
     <mergeCell ref="J53:J55"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="B5:B25"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C24:C25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
